--- a/IPL/Chennai Super Kings/Venkatesh Iyer.xlsx
+++ b/IPL/Chennai Super Kings/Venkatesh Iyer.xlsx
@@ -445,10 +445,10 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C2" t="str">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="str">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E2" t="str">
         <v>2</v>
@@ -457,16 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>100.00</v>
+        <v>225.00</v>
       </c>
       <c r="H2" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Chennai</v>
       </c>
       <c r="J2" t="str">
-        <v>March 26 2022</v>
+        <v>May 14 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,16 +480,16 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C3" t="str">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="str">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" t="str">
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
         <v>100.00</v>
@@ -495,13 +498,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Eden Gardens</v>
       </c>
       <c r="J3" t="str">
-        <v>March 26 2022</v>
+        <v>April 23 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 6 wickets (with 9 balls remaining)</v>
+        <v/>
       </c>
     </row>
   </sheetData>
